--- a/measurement/daynight/sin.xlsx
+++ b/measurement/daynight/sin.xlsx
@@ -1,33 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="too fast so messy" sheetId="1" r:id="rId1"/>
+    <sheet name="proper" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">proper!$G$1:$G$3</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">proper!$G$4</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>noon</t>
   </si>
   <si>
     <t>local noon</t>
   </si>
+  <si>
+    <t>cosx</t>
+  </si>
+  <si>
+    <t>sinx</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>coeff-cos</t>
+  </si>
+  <si>
+    <t>coeff-sin</t>
+  </si>
+  <si>
+    <t>coeff-1</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>peak UT</t>
+  </si>
+  <si>
+    <t>peak after noon</t>
+  </si>
+  <si>
+    <t>(max-min)/2</t>
+  </si>
+  <si>
+    <t>timediff (0=sunrise)</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -58,11 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,10 +237,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>'too fast so messy'!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.13773148148148148</c:v>
                 </c:pt>
@@ -238,17 +317,77 @@
                   <c:v>0.27199074074074076</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.28895833333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.29821759259259256</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30701388888888886</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31581018518518517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31724537037037037</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31725694444444447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32368055555555558</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32476851851851851</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.330625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33107638888888885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33599537037037036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33664351851851854</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34196759259259263</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34682870370370367</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35192129629629632</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35701388888888891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36210648148148145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.37229166666666669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37784722222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>'too fast so messy'!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>304.61</c:v>
                 </c:pt>
@@ -319,7 +458,67 @@
                   <c:v>313.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>313.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>312.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>311.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>310.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>310.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>309.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>309.62</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>309.37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>309.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>308.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>308.69</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>307.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>307.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>306.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>306.08</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>305.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>305.31</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>304.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,10 +552,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>'too fast so messy'!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.13773148148148148</c:v>
                 </c:pt>
@@ -433,17 +632,77 @@
                   <c:v>0.27199074074074076</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.28895833333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.29821759259259256</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30701388888888886</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31581018518518517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31724537037037037</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31725694444444447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32368055555555558</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32476851851851851</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.330625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33107638888888885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33599537037037036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33664351851851854</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34196759259259263</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34682870370370367</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35192129629629632</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35701388888888891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36210648148148145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.37229166666666669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37784722222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>'too fast so messy'!$C$2:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>304.62930922730942</c:v>
                 </c:pt>
@@ -520,7 +779,67 @@
                   <c:v>313.53642325671325</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>313.10306098984859</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>312.54831813538897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>311.84506701645677</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>311.0048131768541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>310.85743923821349</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.85624081790274</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310.1702184497712</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310.05058861903996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>309.71600164603416</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>309.39579036336175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>309.34481103675159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>308.78805011961038</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>308.71478126760206</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308.11786261814933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>307.58683328847837</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>307.05373036089179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>306.55296517680398</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>306.09272990254743</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>305.6630728252407</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>305.32317937351309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>305.00266166328333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,11 +854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-134596848"/>
-        <c:axId val="-134585424"/>
+        <c:axId val="339420064"/>
+        <c:axId val="339421696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-134596848"/>
+        <c:axId val="339420064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,12 +915,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-134585424"/>
+        <c:crossAx val="339421696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-134585424"/>
+        <c:axId val="339421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +977,439 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-134596848"/>
+        <c:crossAx val="339420064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>proper!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.8194444444444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.013888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.361111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5925925925925925E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5543981481481477E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2083333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2847222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4027777777777771E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6805555555555566E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1154513888888889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12870370370370371</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13287037037037039</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14149305555555555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15711805555555555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17337962962962963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18136574074074074</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20150462962962964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20173611111111112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20208333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23518518518518516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24050925925925926</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24403935185185185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>proper!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>313.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>312.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>308.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>305.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>305.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>304.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>304.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>304.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>305.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>306.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>308.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>308.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>309.07</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>311.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>312.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>312.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="339430400"/>
+        <c:axId val="339429856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="339430400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339429856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="339429856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339430400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -747,7 +1498,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1277,6 +2584,41 @@
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1585,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,12 +2940,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1">
-        <f>AVERAGE(B2:B27)</f>
-        <v>308.90791666666661</v>
+        <f>AVERAGE(B2:B28)</f>
+        <v>309.07599999999991</v>
       </c>
       <c r="C1">
-        <f>AVERAGE(C2:C27)</f>
-        <v>308.91875070563412</v>
+        <f>AVERAGE(C2:C28)</f>
+        <v>309.07372516060502</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,20 +3271,260 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.29821759259259256</v>
+        <v>0.28895833333333337</v>
       </c>
       <c r="B27">
-        <v>312.55</v>
+        <v>313.11</v>
       </c>
       <c r="C27" s="2">
         <f>$D$2+$D$5/2*COS(8*PI()*(A27-$D$12))</f>
+        <v>313.10306098984859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0.29821759259259256</v>
+      </c>
+      <c r="B28">
+        <v>312.55</v>
+      </c>
+      <c r="C28" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A28-$D$12))</f>
         <v>312.54831813538897</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0.30701388888888886</v>
+      </c>
+      <c r="B29">
+        <v>311.85000000000002</v>
+      </c>
+      <c r="C29" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A29-$D$12))</f>
+        <v>311.84506701645677</v>
+      </c>
+    </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.31581018518518517</v>
+      </c>
+      <c r="B30">
+        <v>310.99</v>
+      </c>
+      <c r="C30" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A30-$D$12))</f>
+        <v>311.0048131768541</v>
+      </c>
       <c r="E30" s="1">
-        <f>D12-(A27-D12)</f>
+        <f>D12-(A28-D12)</f>
         <v>0.24449074074074079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0.31724537037037037</v>
+      </c>
+      <c r="B31">
+        <v>310.77</v>
+      </c>
+      <c r="C31" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A31-$D$12))</f>
+        <v>310.85743923821349</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0.31725694444444447</v>
+      </c>
+      <c r="B32">
+        <v>310.76</v>
+      </c>
+      <c r="C32" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A32-$D$12))</f>
+        <v>310.85624081790274</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0.32368055555555558</v>
+      </c>
+      <c r="B33">
+        <v>310.14999999999998</v>
+      </c>
+      <c r="C33" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A33-$D$12))</f>
+        <v>310.1702184497712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0.32476851851851851</v>
+      </c>
+      <c r="B34">
+        <v>309.95</v>
+      </c>
+      <c r="C34" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A34-$D$12))</f>
+        <v>310.05058861903996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="B35">
+        <v>309.62</v>
+      </c>
+      <c r="C35" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A35-$D$12))</f>
+        <v>309.71600164603416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0.330625</v>
+      </c>
+      <c r="B36">
+        <v>309.37</v>
+      </c>
+      <c r="C36" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A36-$D$12))</f>
+        <v>309.39579036336175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0.33107638888888885</v>
+      </c>
+      <c r="B37">
+        <v>309.24</v>
+      </c>
+      <c r="C37" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A37-$D$12))</f>
+        <v>309.34481103675159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0.33599537037037036</v>
+      </c>
+      <c r="B38">
+        <v>308.69</v>
+      </c>
+      <c r="C38" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A38-$D$12))</f>
+        <v>308.78805011961038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0.33664351851851854</v>
+      </c>
+      <c r="B39">
+        <v>308.69</v>
+      </c>
+      <c r="C39" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A39-$D$12))</f>
+        <v>308.71478126760206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0.34196759259259263</v>
+      </c>
+      <c r="B40">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C40" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A40-$D$12))</f>
+        <v>308.11786261814933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0.34682870370370367</v>
+      </c>
+      <c r="B41">
+        <v>307.54000000000002</v>
+      </c>
+      <c r="C41" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A41-$D$12))</f>
+        <v>307.58683328847837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0.35192129629629632</v>
+      </c>
+      <c r="B42">
+        <v>307.02999999999997</v>
+      </c>
+      <c r="C42" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A42-$D$12))</f>
+        <v>307.05373036089179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0.35701388888888891</v>
+      </c>
+      <c r="B43">
+        <v>306.52999999999997</v>
+      </c>
+      <c r="C43" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A43-$D$12))</f>
+        <v>306.55296517680398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0.36210648148148145</v>
+      </c>
+      <c r="B44">
+        <v>306.08</v>
+      </c>
+      <c r="C44" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A44-$D$12))</f>
+        <v>306.09272990254743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0.36743055555555554</v>
+      </c>
+      <c r="B45">
+        <v>305.64999999999998</v>
+      </c>
+      <c r="C45" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A45-$D$12))</f>
+        <v>305.6630728252407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0.37229166666666669</v>
+      </c>
+      <c r="B46">
+        <v>305.31</v>
+      </c>
+      <c r="C46" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A46-$D$12))</f>
+        <v>305.32317937351309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0.37784722222222222</v>
+      </c>
+      <c r="B47">
+        <v>304.99</v>
+      </c>
+      <c r="C47" s="2">
+        <f>$D$2+$D$5/2*COS(8*PI()*(A47-$D$12))</f>
+        <v>305.00266166328333</v>
       </c>
     </row>
   </sheetData>
@@ -1950,4 +3532,854 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>3.9234215498224509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3.8194444444444443E-3</v>
+      </c>
+      <c r="B2">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="C2">
+        <f>COS(8*PI()*A2)</f>
+        <v>0.99539619836717885</v>
+      </c>
+      <c r="D2">
+        <f>SIN(8*PI()*A2)</f>
+        <v>9.5845752520223981E-2</v>
+      </c>
+      <c r="E2">
+        <f>(B2-ROUND($G$1*C2+$G$2*D2+$G$3,2))^2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2.2162156887111979</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROUND(309.03+COS(8*PI()*(A2-$G$10-3/4/24))*$G$11,2)</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <f>B2-I2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="B3">
+        <v>313.54000000000002</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C27" si="0">COS(8*PI()*A3)</f>
+        <v>0.87461970713939574</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D27" si="1">SIN(8*PI()*A3)</f>
+        <v>0.48480962024633706</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E27" si="2">(B3-ROUND($G$1*C3+$G$2*D3+$G$3,2))^2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>309.0317944466284</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I27" si="3">ROUND(309.03+COS(8*PI()*(A3-$G$10-3/4/24))*$G$11,2)</f>
+        <v>313.54000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J27" si="4">B3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="B4">
+        <v>313.52</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.82903757255504174</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.55919290347074679</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>SUM(E2:E27)</f>
+        <v>9.9999999999818103E-5</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>313.52</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2.5925925925925925E-2</v>
+      </c>
+      <c r="B5">
+        <v>313.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.79512079649484779</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.60645108539881332</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-9.7207000000000002E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-9.7194000000000003E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>313.49</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B6">
+        <v>313.37</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>285.44234999999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>285.44238799999999</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>313.37</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4.5543981481481477E-2</v>
+      </c>
+      <c r="B7">
+        <v>312.67</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.41336931948194727</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.91056345507110692</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <f>((-3.14/2/PI()+$G$6/360))/4</f>
+        <v>7.3287223839528806E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>312.67</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="B8">
+        <v>312.19</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.25881904510252074</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <f>ATAN($G$2/$G$1)/PI()/8</f>
+        <v>2.0458832977532388E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>312.19</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6.2847222222222221E-2</v>
+      </c>
+      <c r="B9">
+        <v>311.20999999999998</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-8.7265354983737751E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.99996192306417131</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4">
+        <f>G8+G7-1/16</f>
+        <v>3.1246056817061191E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>311.20999999999998</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B10">
+        <v>308.91000000000003</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.51503807491005382</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.85716730070211256</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f>5/4/4-$G$7</f>
+        <v>0.23921277616047121</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>308.91000000000003</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="B11">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.57357643635104616</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.81915204428899169</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SQRT($G$1^2+$G$2^2)</f>
+        <v>4.5060901718120165</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>308.60000000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="B12">
+        <v>305.76</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.97029572627599636</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.24192189559966817</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>305.76</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.1154513888888889</v>
+      </c>
+      <c r="B13">
+        <v>305.74</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.97134206981326143</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.23768589232617293</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999818103E-5</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>305.75</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.12870370370370371</v>
+      </c>
+      <c r="B14">
+        <v>304.92</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-0.99567079064980435</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-9.2949860929392364E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>304.92</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.13287037037037039</v>
+      </c>
+      <c r="B15">
+        <v>304.75</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.9805004957559792</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-0.19651660953283043</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>304.75</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.14149305555555555</v>
+      </c>
+      <c r="B16">
+        <v>304.55</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-0.91531147911944721</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-0.40274668985873707</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>304.55</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.15711805555555555</v>
+      </c>
+      <c r="B17">
+        <v>304.72000000000003</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.69151305578226951</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-0.7223639620597555</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>304.72000000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="B18">
+        <v>304.89999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.60181502315204827</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-0.79863551004729283</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>304.89999999999998</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.17337962962962963</v>
+      </c>
+      <c r="B19">
+        <v>305.58999999999997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.3474812344941311</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-0.937686936922145</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>305.58999999999997</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.18136574074074074</v>
+      </c>
+      <c r="B20">
+        <v>306.24</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.15356073832878603</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-0.98813921066007604</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>306.24</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.20150462962962964</v>
+      </c>
+      <c r="B21">
+        <v>308.3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.34475214748539407</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-0.9386937502743955</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>308.3</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.20173611111111112</v>
+      </c>
+      <c r="B22">
+        <v>308.33</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.35020738125946721</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-0.93667218924839768</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>308.33</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="B23">
+        <v>308.37</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.35836794954529955</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-0.93358042649720208</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>308.37</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B24">
+        <v>309.07</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>309.07</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.23518518518518516</v>
+      </c>
+      <c r="B25">
+        <v>311.88</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.93147973892614222</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-0.36379320495315193</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>311.88</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.24050925925925926</v>
+      </c>
+      <c r="B26">
+        <v>312.32</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.97168674242088016</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-0.2362728816506415</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>312.32</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.24403935185185185</v>
+      </c>
+      <c r="B27">
+        <v>312.58</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.98879983728229903</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>-0.14924771954873872</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>312.58</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/measurement/daynight/sin.xlsx
+++ b/measurement/daynight/sin.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="too fast so messy" sheetId="1" r:id="rId1"/>
     <sheet name="proper" sheetId="2" r:id="rId2"/>
+    <sheet name="alt" sheetId="3" r:id="rId3"/>
+    <sheet name="alt2" sheetId="4" r:id="rId4"/>
+    <sheet name="lat" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">proper!$G$1:$G$3</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>noon</t>
   </si>
@@ -96,6 +99,39 @@
   <si>
     <t>altitude</t>
   </si>
+  <si>
+    <t>alt temp offset mult</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>aver</t>
+  </si>
+  <si>
+    <t>288.15+total temp mod = bodytemp under craft</t>
+  </si>
+  <si>
+    <t>body temp peak</t>
+  </si>
+  <si>
+    <t>45min before noon</t>
+  </si>
+  <si>
+    <t>EARTH ALT</t>
+  </si>
+  <si>
+    <t>Diurnal Temp Range</t>
+  </si>
+  <si>
+    <t>Lat Temp Mod</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
 </sst>
 </file>
 
@@ -103,8 +139,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -140,8 +176,8 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +210,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -854,11 +889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339420064"/>
-        <c:axId val="339421696"/>
+        <c:axId val="1215327232"/>
+        <c:axId val="1184695200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339420064"/>
+        <c:axId val="1215327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,12 +950,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339421696"/>
+        <c:crossAx val="1184695200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339421696"/>
+        <c:axId val="1184695200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339420064"/>
+        <c:crossAx val="1215327232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1286,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339430400"/>
-        <c:axId val="339429856"/>
+        <c:axId val="1500558352"/>
+        <c:axId val="1500551824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339430400"/>
+        <c:axId val="1500558352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +1382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339429856"/>
+        <c:crossAx val="1500551824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339429856"/>
+        <c:axId val="1500551824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1444,2506 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339430400"/>
+        <c:crossAx val="1500558352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>alt!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>alt!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99988999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98999000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97111000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96343999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91700999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78486999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58167999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43074000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34394000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32413999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29857</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26539000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1500563792"/>
+        <c:axId val="1500557264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1500563792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1500557264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1500557264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1500563792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>alt!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>alt!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-4.777502068369477E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.8243446989642584E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3691922375543564E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2731573709647634E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6175326654913315E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7625928320012693E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10520227058984717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.15412712573578216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.23531586836419116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.29182563832166758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.36578479628325655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.46351731307280009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.48926737221566685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.52495383187220235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.57611544555085958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1215322336"/>
+        <c:axId val="1215320160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1215322336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215320160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1215320160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215322336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>alt!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>57.600650956972039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.01130174078202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574.46474112135058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.7937359629675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1124.2479309909031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1741.3947692698059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.7386890477569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3634.5900233410721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4532.0262546855311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5073.0443786122278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5722.4176226516784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6538.7779696383859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6759.352348943713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7081.0240734241088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7528.7045733598907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>alt!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-4.777502068369477E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.8243446989642584E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3691922375543564E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2731573709647634E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6175326654913315E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7625928320012693E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10520227058984717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.15412712573578216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.23531586836419116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.29182563832166758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.36578479628325655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.46351731307280009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.48926737221566685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.52495383187220235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.57611544555085958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1555329136"/>
+        <c:axId val="1555322064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1555329136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555322064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1555322064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555329136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>alt!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>57.600650956972039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.01130174078202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574.46474112135058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>993.7937359629675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1124.2479309909031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1741.3947692698059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.7386890477569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3634.5900233410721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4532.0262546855311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5073.0443786122278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5722.4176226516784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6538.7779696383859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6759.352348943713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7081.0240734241088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7528.7045733598907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>alt!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0747932243270979E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3967410368561932E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8933828078803827E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4943500940634752E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9686457723584418E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6040815413741152E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3441768484455974E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2253648477241276E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1778020225431939E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11120389955310779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13538227390659394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16539786440391246</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17297267481983206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18325669557352223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19758802503770576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1558001104"/>
+        <c:axId val="1557991856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1558001104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557991856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557991856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558001104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Lat</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Temp Mod</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lat!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>85.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.751999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.506</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.863</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.616</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.782</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lat!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-48.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-48.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-48.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-45.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-43.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-37.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-35.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-34.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-33.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-32.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-29.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-26.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-22.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-20.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-19.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-15.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1557997296"/>
+        <c:axId val="1558000016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1557997296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558000016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1558000016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557997296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Diurnal Temp Range</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lat!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>85.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.751999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.506</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.863</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.616</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.782</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lat!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1557996752"/>
+        <c:axId val="1557992944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1557996752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557992944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557992944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557996752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1538,6 +4072,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2055,6 +4829,3102 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2632,6 +8502,198 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3265,7 +9327,7 @@
         <v>313.52999999999997</v>
       </c>
       <c r="C26" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A26-$D$12))</f>
+        <f t="shared" ref="C26:C47" si="1">$D$2+$D$5/2*COS(8*PI()*(A26-$D$12))</f>
         <v>313.53642325671325</v>
       </c>
     </row>
@@ -3277,7 +9339,7 @@
         <v>313.11</v>
       </c>
       <c r="C27" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A27-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>313.10306098984859</v>
       </c>
     </row>
@@ -3289,7 +9351,7 @@
         <v>312.55</v>
       </c>
       <c r="C28" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A28-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>312.54831813538897</v>
       </c>
     </row>
@@ -3301,7 +9363,7 @@
         <v>311.85000000000002</v>
       </c>
       <c r="C29" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A29-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>311.84506701645677</v>
       </c>
     </row>
@@ -3313,7 +9375,7 @@
         <v>310.99</v>
       </c>
       <c r="C30" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A30-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>311.0048131768541</v>
       </c>
       <c r="E30" s="1">
@@ -3329,7 +9391,7 @@
         <v>310.77</v>
       </c>
       <c r="C31" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A31-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>310.85743923821349</v>
       </c>
       <c r="E31" s="1"/>
@@ -3342,7 +9404,7 @@
         <v>310.76</v>
       </c>
       <c r="C32" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A32-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>310.85624081790274</v>
       </c>
       <c r="E32" s="1"/>
@@ -3355,7 +9417,7 @@
         <v>310.14999999999998</v>
       </c>
       <c r="C33" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A33-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>310.1702184497712</v>
       </c>
     </row>
@@ -3367,7 +9429,7 @@
         <v>309.95</v>
       </c>
       <c r="C34" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A34-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>310.05058861903996</v>
       </c>
     </row>
@@ -3379,7 +9441,7 @@
         <v>309.62</v>
       </c>
       <c r="C35" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A35-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>309.71600164603416</v>
       </c>
     </row>
@@ -3391,7 +9453,7 @@
         <v>309.37</v>
       </c>
       <c r="C36" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A36-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>309.39579036336175</v>
       </c>
     </row>
@@ -3403,7 +9465,7 @@
         <v>309.24</v>
       </c>
       <c r="C37" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A37-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>309.34481103675159</v>
       </c>
     </row>
@@ -3415,7 +9477,7 @@
         <v>308.69</v>
       </c>
       <c r="C38" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A38-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>308.78805011961038</v>
       </c>
     </row>
@@ -3427,7 +9489,7 @@
         <v>308.69</v>
       </c>
       <c r="C39" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A39-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>308.71478126760206</v>
       </c>
     </row>
@@ -3439,7 +9501,7 @@
         <v>308.10000000000002</v>
       </c>
       <c r="C40" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A40-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>308.11786261814933</v>
       </c>
     </row>
@@ -3451,7 +9513,7 @@
         <v>307.54000000000002</v>
       </c>
       <c r="C41" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A41-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>307.58683328847837</v>
       </c>
     </row>
@@ -3463,7 +9525,7 @@
         <v>307.02999999999997</v>
       </c>
       <c r="C42" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A42-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>307.05373036089179</v>
       </c>
     </row>
@@ -3475,7 +9537,7 @@
         <v>306.52999999999997</v>
       </c>
       <c r="C43" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A43-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>306.55296517680398</v>
       </c>
     </row>
@@ -3487,7 +9549,7 @@
         <v>306.08</v>
       </c>
       <c r="C44" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A44-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>306.09272990254743</v>
       </c>
     </row>
@@ -3499,7 +9561,7 @@
         <v>305.64999999999998</v>
       </c>
       <c r="C45" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A45-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>305.6630728252407</v>
       </c>
     </row>
@@ -3511,7 +9573,7 @@
         <v>305.31</v>
       </c>
       <c r="C46" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A46-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>305.32317937351309</v>
       </c>
     </row>
@@ -3523,7 +9585,7 @@
         <v>304.99</v>
       </c>
       <c r="C47" s="2">
-        <f>$D$2+$D$5/2*COS(8*PI()*(A47-$D$12))</f>
+        <f t="shared" si="1"/>
         <v>305.00266166328333</v>
       </c>
     </row>
@@ -3536,10 +9598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,7 +10122,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="I16" s="2">
         <f t="shared" si="3"/>
         <v>304.55</v>
@@ -4376,6 +10443,1038 @@
       <c r="J27" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>314.14</v>
+      </c>
+      <c r="F35">
+        <f>G3+G11</f>
+        <v>313.53788461844039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>0.99988999999999995</v>
+      </c>
+      <c r="D2">
+        <f>LOG(B2)</f>
+        <v>-4.777502068369477E-5</v>
+      </c>
+      <c r="E2">
+        <f>5096.8*(A2/1000)/(6371-(A2/1000))*1000</f>
+        <v>57.600650956972039</v>
+      </c>
+      <c r="F2">
+        <f>1-EXP(E2/1000000)</f>
+        <v>-5.7602309906368276E-5</v>
+      </c>
+      <c r="H2">
+        <f>1-D2</f>
+        <v>1.0000477750206838</v>
+      </c>
+      <c r="I2">
+        <f>LOG(H2)</f>
+        <v>2.0747932243270979E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">LOG(B3)</f>
+        <v>-7.8243446989642584E-4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="1">5096.8*(A3/1000)/(6371-(A3/1000))*1000</f>
+        <v>240.01130174078202</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="2">1-EXP(E3/1000000)</f>
+        <v>-2.400401067577107E-4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="3">1-D3</f>
+        <v>1.0007824344698963</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="4">LOG(H3)</f>
+        <v>3.3967410368561932E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>718</v>
+      </c>
+      <c r="B4">
+        <v>0.98999000000000004</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4.3691922375543564E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>574.46474112135058</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-5.7462977759170641E-4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>1.0043691922375544</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1.8933828078803827E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1242</v>
+      </c>
+      <c r="B5">
+        <v>0.97111000000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-1.2731573709647634E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>993.7937359629675</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-9.9428771258125437E-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1.0127315737096476</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>5.4943500940634752E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1405</v>
+      </c>
+      <c r="B6">
+        <v>0.96343999999999996</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-1.6175326654913315E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1124.2479309909031</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-1.1248801345917769E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.0161753266549134</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>6.9686457723584418E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2176</v>
+      </c>
+      <c r="B7">
+        <v>0.91700999999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-3.7625928320012693E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1741.3947692698059</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-1.7429118776413066E-3</v>
+      </c>
+      <c r="G7">
+        <f>EXP(A7/1000)/D7</f>
+        <v>-234.17340390730811</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1.0376259283200127</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1.6040815413741152E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3720</v>
+      </c>
+      <c r="B8">
+        <v>0.78486999999999996</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-0.10520227058984717</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2977.7386890477569</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-2.9821765567414893E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1.1052022705898472</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>4.3441768484455974E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4540</v>
+      </c>
+      <c r="B9">
+        <v>0.70125000000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.15412712573578216</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3634.5900233410721</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-3.6412031552404134E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1.1541271257357821</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>6.2253648477241276E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5660</v>
+      </c>
+      <c r="B10">
+        <v>0.58167999999999997</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.23531586836419116</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4532.0262546855311</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-4.5423114173446244E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1.2353158683641912</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>9.1778020225431939E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6335</v>
+      </c>
+      <c r="B11">
+        <v>0.51071</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.29182563832166758</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>5073.0443786122278</v>
+      </c>
+      <c r="F11">
+        <f>1-EXP(E11/1000000)</f>
+        <v>-5.0859340556628219E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1.2918256383216675</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.11120389955310779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7145</v>
+      </c>
+      <c r="B12">
+        <v>0.43074000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.36578479628325655</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>5722.4176226516784</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-5.7388219302145771E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1.3657847962832566</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.13538227390659394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8163</v>
+      </c>
+      <c r="B13">
+        <v>0.34394000000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.46351731307280009</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>6538.7779696383859</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-6.5602024494895161E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1.4635173130728001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.16539786440391246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8438</v>
+      </c>
+      <c r="B14">
+        <v>0.32413999999999998</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.48926737221566685</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>6759.352348943713</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-6.7822483292940827E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1.4892673722156669</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.17297267481983206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8839</v>
+      </c>
+      <c r="B15">
+        <v>0.29857</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.52495383187220235</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>7081.0240734241088</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-7.106153804113724E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1.5249538318722022</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.18325669557352223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9397</v>
+      </c>
+      <c r="B16">
+        <v>0.26539000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.57611544555085958</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>7528.7045733598907</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-7.5571165266139495E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>1.5761154455508595</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.19758802503770576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32510</v>
+      </c>
+      <c r="B17">
+        <v>0.11742</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.93025792395835516</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>26141.394559272005</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-2.6486077759518167E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.9302579239583553</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.28561534396514582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>44965</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>313.61</v>
+      </c>
+      <c r="C2">
+        <v>23.59</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>290.02000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>311.55</v>
+      </c>
+      <c r="C3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>294.15000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>642</v>
+      </c>
+      <c r="B4">
+        <v>303.31</v>
+      </c>
+      <c r="C4">
+        <v>25.68</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>277.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1242</v>
+      </c>
+      <c r="B5">
+        <v>298.08</v>
+      </c>
+      <c r="C5">
+        <v>25.15</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>272.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>85.46</v>
+      </c>
+      <c r="B2">
+        <v>-48.76</v>
+      </c>
+      <c r="C2">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>85.545000000000002</v>
+      </c>
+      <c r="B3">
+        <v>-48.8</v>
+      </c>
+      <c r="C3">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>85.215999999999994</v>
+      </c>
+      <c r="B4">
+        <v>-48.64</v>
+      </c>
+      <c r="C4">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>82.751999999999995</v>
+      </c>
+      <c r="B5">
+        <v>-47.16</v>
+      </c>
+      <c r="C5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>80.923000000000002</v>
+      </c>
+      <c r="B6">
+        <v>-45.84</v>
+      </c>
+      <c r="C6">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>77.653999999999996</v>
+      </c>
+      <c r="B7">
+        <v>-43.16</v>
+      </c>
+      <c r="C7">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70.662999999999997</v>
+      </c>
+      <c r="B8">
+        <v>-37.46</v>
+      </c>
+      <c r="C8">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>66.921999999999997</v>
+      </c>
+      <c r="B9">
+        <v>-35.35</v>
+      </c>
+      <c r="C9">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64.275999999999996</v>
+      </c>
+      <c r="B10">
+        <v>-34.39</v>
+      </c>
+      <c r="C10">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60.698</v>
+      </c>
+      <c r="B11">
+        <v>-33.36</v>
+      </c>
+      <c r="C11">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59.44</v>
+      </c>
+      <c r="B12">
+        <v>-32.97</v>
+      </c>
+      <c r="C12">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>56.116999999999997</v>
+      </c>
+      <c r="B13">
+        <v>-31.62</v>
+      </c>
+      <c r="C13">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>53.328000000000003</v>
+      </c>
+      <c r="B14">
+        <v>-29.95</v>
+      </c>
+      <c r="C14">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>48.289000000000001</v>
+      </c>
+      <c r="B15">
+        <v>-26.15</v>
+      </c>
+      <c r="C15">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44.554000000000002</v>
+      </c>
+      <c r="B16">
+        <v>-22.53</v>
+      </c>
+      <c r="C16">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>42.506</v>
+      </c>
+      <c r="B17">
+        <v>-20.27</v>
+      </c>
+      <c r="C17">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>41.869</v>
+      </c>
+      <c r="B18">
+        <v>-19.53</v>
+      </c>
+      <c r="C18">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>39.777999999999999</v>
+      </c>
+      <c r="B19">
+        <v>-16.97</v>
+      </c>
+      <c r="C19">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>38.603999999999999</v>
+      </c>
+      <c r="B20">
+        <v>-15.41</v>
+      </c>
+      <c r="C20">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>37.445</v>
+      </c>
+      <c r="B21">
+        <v>-13.78</v>
+      </c>
+      <c r="C21">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>33.512999999999998</v>
+      </c>
+      <c r="B22">
+        <v>-7.07</v>
+      </c>
+      <c r="C22">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32.765000000000001</v>
+      </c>
+      <c r="B23">
+        <v>-5.38</v>
+      </c>
+      <c r="C23">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>31.863</v>
+      </c>
+      <c r="B24">
+        <v>-3.37</v>
+      </c>
+      <c r="C24">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27.934000000000001</v>
+      </c>
+      <c r="B25">
+        <v>2.21</v>
+      </c>
+      <c r="C25">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24.288</v>
+      </c>
+      <c r="B26">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C26">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22.530999999999999</v>
+      </c>
+      <c r="B27">
+        <v>4.92</v>
+      </c>
+      <c r="C27">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21.027999999999999</v>
+      </c>
+      <c r="B28">
+        <v>5.33</v>
+      </c>
+      <c r="C28">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19.616</v>
+      </c>
+      <c r="B29">
+        <v>5.75</v>
+      </c>
+      <c r="C29">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16.783999999999999</v>
+      </c>
+      <c r="B30">
+        <v>7.01</v>
+      </c>
+      <c r="C30">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14.44</v>
+      </c>
+      <c r="B31">
+        <v>8.64</v>
+      </c>
+      <c r="C31">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="B32">
+        <v>12.34</v>
+      </c>
+      <c r="C32">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6.9889999999999999</v>
+      </c>
+      <c r="B33">
+        <v>13.83</v>
+      </c>
+      <c r="C33">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.782</v>
+      </c>
+      <c r="B34">
+        <v>14.49</v>
+      </c>
+      <c r="C34">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="B35">
+        <v>15.88</v>
+      </c>
+      <c r="C35">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="B36">
+        <v>16.53</v>
+      </c>
+      <c r="C36">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="B37">
+        <v>16.93</v>
+      </c>
+      <c r="C37">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="B38">
+        <v>16.97</v>
+      </c>
+      <c r="C38">
+        <v>9.01</v>
       </c>
     </row>
   </sheetData>
